--- a/lfd_package/results/buffalo_ny/buffalo_ny_results.xlsx
+++ b/lfd_package/results/buffalo_ny/buffalo_ny_results.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\PycharmProjects\load_following_decision\lfd_package\results\buffalo_ny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1257F7-8FD6-49FC-A6CA-6603A2E04FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431E1F57-A073-40AB-B045-21D724B41AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34785" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="STD2019_Buffalo_NY.csv" sheetId="2" r:id="rId1"/>
+    <sheet name="STD2019_Buffalo_NY.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="STD2016_Buffalo_NY.csv" sheetId="2" r:id="rId2"/>
+    <sheet name="STD2013_Buffalo_NY.csv" sheetId="3" r:id="rId3"/>
+    <sheet name="STD2010_Buffalo_NY.csv" sheetId="4" r:id="rId4"/>
+    <sheet name="STD2007_Buffalo_NY.csv" sheetId="5" r:id="rId5"/>
+    <sheet name="STD2004_Buffalo_NY.csv" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="42">
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
   <si>
     <t>ELF</t>
   </si>
   <si>
     <t>TLF</t>
-  </si>
-  <si>
-    <t>PP PES</t>
   </si>
   <si>
     <t>PP Peak</t>
@@ -37,13 +45,10 @@
     <t>Annual Electrical Demand</t>
   </si>
   <si>
-    <t>megawatt_hour</t>
+    <t>kilowatt_hour</t>
   </si>
   <si>
-    <t>Thermal Energy Savings</t>
-  </si>
-  <si>
-    <t>kilowatt_hour</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>Peak Electrical Demand</t>
@@ -52,13 +57,7 @@
     <t>kilowatt</t>
   </si>
   <si>
-    <t>Electrical Energy Savings</t>
-  </si>
-  <si>
     <t>Annual Thermal Demand</t>
-  </si>
-  <si>
-    <t>Total Energy Savings</t>
   </si>
   <si>
     <t>Peak Thermal Demand</t>
@@ -73,28 +72,61 @@
     <t>Aux Boiler Size</t>
   </si>
   <si>
-    <t>Baseline</t>
+    <t>CHP Electrical Energy Generation</t>
   </si>
   <si>
-    <t>metric_ton</t>
+    <t>Electrical Energy Bought</t>
+  </si>
+  <si>
+    <t>Electrical Energy Sold</t>
+  </si>
+  <si>
+    <t>CHP Thermal Energy Generation</t>
+  </si>
+  <si>
+    <t>TES Thermal Energy Dispatched</t>
+  </si>
+  <si>
+    <t>Boiler Thermal Energy Generation</t>
+  </si>
+  <si>
+    <t>CHP Electrical Pct Coverage</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Electricity Bought Pct Coverage</t>
+  </si>
+  <si>
+    <t>CHP Thermal Pct Coverage</t>
+  </si>
+  <si>
+    <t>TES Thermal Pct Coverage</t>
+  </si>
+  <si>
+    <t>Boiler Thermal Pct Coverage</t>
+  </si>
+  <si>
+    <t>Thermal Energy Savings</t>
+  </si>
+  <si>
+    <t>Electrical Energy Savings</t>
+  </si>
+  <si>
+    <t>Total Energy Savings</t>
   </si>
   <si>
     <t>Electricity Cost</t>
   </si>
   <si>
-    <t>Electrical Energy Bought</t>
+    <t>dimensionless</t>
   </si>
   <si>
     <t>Fuel Cost</t>
   </si>
   <si>
-    <t>Electrical Energy Sold</t>
-  </si>
-  <si>
     <t>CHP Installed Cost</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>CHP O&amp;M Cost</t>
@@ -112,49 +144,13 @@
     <t>Simple Payback [Yrs]</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Simple Payback (37.5% incentive)</t>
   </si>
   <si>
-    <t>Variable Name</t>
+    <t>CO2</t>
   </si>
   <si>
-    <t>CHP Electrical Energy Generation</t>
-  </si>
-  <si>
-    <t>CHP Thermal Energy Generation</t>
-  </si>
-  <si>
-    <t>TES Thermal Energy Dispatched</t>
-  </si>
-  <si>
-    <t>Boiler Thermal Energy Generation</t>
-  </si>
-  <si>
-    <t>CHP Electrical Pct Coverage</t>
-  </si>
-  <si>
-    <t>Electricity Bought Pct Coverage</t>
-  </si>
-  <si>
-    <t>CHP Thermal Pct Coverage</t>
-  </si>
-  <si>
-    <t>TES Thermal Pct Coverage</t>
-  </si>
-  <si>
-    <t>Boiler Thermal Pct Coverage</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>CO2</t>
+    <t>metric_ton</t>
   </si>
 </sst>
 </file>
@@ -516,90 +512,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>326.39999999999998</v>
+        <v>326401.8</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -613,74 +592,62 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>51.933</v>
+        <v>51933.392</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>55.731000000000002</v>
@@ -689,42 +656,36 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>30.4</v>
@@ -739,68 +700,56 @@
         <v>9</v>
       </c>
       <c r="I6">
-        <v>35</v>
+        <v>72.92</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
       </c>
-      <c r="K6">
-        <v>72.92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>88.525000000000006</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>55.73</v>
@@ -820,101 +769,83 @@
       <c r="J8" t="s">
         <v>9</v>
       </c>
-      <c r="K8">
-        <v>55.73</v>
-      </c>
-      <c r="L8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>242408.53</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>18258.150000000001</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>267897.90999999997</v>
+        <v>531939.92000000004</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>326401.8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>83993.27</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>308143.65000000002</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>58503.89</v>
+        <v>25017.32</v>
       </c>
       <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -922,815 +853,5801 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
       <c r="I11">
-        <v>38702.089999999997</v>
+        <v>230555.44</v>
       </c>
       <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>312363.61</v>
-      </c>
-      <c r="L11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>453813.01</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>35193.050000000003</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>573985.86</v>
+        <v>995844.73</v>
       </c>
       <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12">
-        <v>1195832.74</v>
-      </c>
-      <c r="L12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>3351.47</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>516.41999999999996</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>17137.14</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13212.93</v>
       </c>
       <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>74.27</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15">
         <v>5.59</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I15">
-        <v>82.08</v>
+        <v>162.97</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>25.73</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G16">
         <v>94.41</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I16">
-        <v>17.920000000000002</v>
+        <v>7.66</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>873.84</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>67.77</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I17">
-        <v>1105.23</v>
+        <v>1917.54</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17">
-        <v>2302.63</v>
-      </c>
-      <c r="L17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G18">
         <v>6.45</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0.99</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G19">
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>25.44</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>-817514.07</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>-22920.55</v>
       </c>
       <c r="H20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>-1050371.42</v>
+        <v>-1886584.08</v>
       </c>
       <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20">
-        <v>-2258656.34</v>
-      </c>
-      <c r="L20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>242408.53</v>
+        <v>606021.32999999996</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>18258.150000000001</v>
+        <v>45645.39</v>
       </c>
       <c r="H21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>267897.90999999997</v>
+        <v>753461.22</v>
       </c>
       <c r="J21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21">
-        <v>326401.8</v>
-      </c>
-      <c r="L21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>-575105.53</v>
+        <v>-211492.73</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>-4662.3999999999996</v>
+        <v>22724.83</v>
       </c>
       <c r="H22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>-782473.51</v>
+        <v>-1133122.8700000001</v>
       </c>
       <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>-1932254.54</v>
-      </c>
-      <c r="L22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>954.21</v>
+        <v>30742.7</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>395.18</v>
+        <v>12853.84</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G23">
-        <v>912.11</v>
+        <v>29395.63</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I23">
-        <v>336.39</v>
+        <v>8501.1200000000008</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>6919.2</v>
+        <v>7142.4</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>32322.37</v>
+        <v>32545.57</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G24">
-        <v>6919.2</v>
+        <v>7142.4</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I24">
-        <v>39059.81</v>
+        <v>63476.28</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24">
-        <v>74019.64</v>
-      </c>
-      <c r="L24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>104978.59</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>22877.86</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I25">
-        <v>120866.9</v>
+        <v>251812.12</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25">
-        <v>251812.12</v>
-      </c>
-      <c r="L25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>7272.26</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G26">
         <v>547.74</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I26">
-        <v>9198</v>
+        <v>15958.2</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26">
-        <v>19162.96</v>
-      </c>
-      <c r="L26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>1855.48</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I29">
-        <v>9302.69</v>
+        <v>17012.87</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29">
-        <v>29497.48</v>
-      </c>
-      <c r="L29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>-3.27</v>
+        <v>-7.1</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G30">
-        <v>-48.91</v>
+        <v>30.94</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I30">
-        <v>-3.85</v>
+        <v>-7.62</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30">
-        <v>-4.51</v>
-      </c>
-      <c r="L30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>-2.04</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G31">
-        <v>-30.57</v>
+        <v>19.34</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I31">
-        <v>-2.4</v>
+        <v>-4.76</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31">
-        <v>-2.82</v>
-      </c>
-      <c r="L31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>38</v>
       </c>
       <c r="H32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32">
+        <v>99</v>
+      </c>
+      <c r="J32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>333178.06</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>47187.512999999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>53.902000000000001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>31.33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>6.3179999999999996</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>89.71</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>53.9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>53.9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>53.9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>250039.62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>16697.93</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>546610.64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>83138.45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>316480.14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>25328.41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>238760.99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>468099.17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>32185.67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>1023309.79</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>3206.66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>327.78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>15364.89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>12100.85</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>75.05</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>5.01</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>164.06</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>24.95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>94.99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>7.6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>992</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>2168.6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>6.8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>0.69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>32.56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>25.64</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>-850969.44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>-20962.099999999999</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>-1944492.55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>625099.04</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>41744.82</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>769624.14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>-225870.4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>20782.72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>-1174868.4099999999</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>31242.95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>12790.75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>30011.01</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23">
+        <v>8524.08</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>7142.4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>33342.17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>7142.4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24">
+        <v>64980.12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>108201.99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>21816.65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>257626.91</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>7501.19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26">
+        <v>500.94</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26">
+        <v>16398.32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <v>1880.33</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29">
+        <v>17618.23</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>-7.1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30">
+        <v>32.42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30">
+        <v>-7.6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>-4.43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31">
+        <v>-4.75</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
       <c r="I32">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="J32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>346431.15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>46143.73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>54.113999999999997</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>31.64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>6.1719999999999997</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>90.789000000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>54.11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>54.11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>54.11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>255241.83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>16140.23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>563823.25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>91189.32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>330290.92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>25507.21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>242899.31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="K32">
-        <v>114</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>477838.23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>31110.7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>1055533.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>3137.57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>236.45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>15402.15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>12001.3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>4.66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>162.75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>26.32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>95.34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>7.36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1035.54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>67.42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>2287.4899999999998</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>6.8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>0.51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>26.01</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>-871083.59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>-20284.73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>-2008285.41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>638104.57999999996</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>40350.58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>802309.85</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>-232979.01</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>20065.84</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>-1205975.56</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>32220.9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>13384.95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>31030.11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23">
+        <v>8537.2800000000007</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>7142.4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>33886.18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>7142.4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24">
+        <v>66788.149999999994</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>109260.48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>21315.45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>263367.15999999997</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>7657.25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26">
+        <v>484.21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26">
+        <v>16914.7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <v>1902.95</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29">
+        <v>17923.73</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>-7.02</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30">
+        <v>32.86</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30">
+        <v>-7.53</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>-4.3899999999999997</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>20.54</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31">
+        <v>-4.71</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32">
+        <v>105</v>
+      </c>
+      <c r="J32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>358927.14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>80.569999999999993</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>119658.93399999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>100.38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>32.79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>14.724</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>80.569999999999993</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>214.26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>208.95099999999999</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>100.38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>100.38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>100.38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>262427.76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>44178.23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>573068.72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>96499.38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>314748.92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>32406.400000000001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>246547.98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>491291.02</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>85154.64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>1072841.95</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5664.08</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>8058.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>3692.11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>35302.559999999998</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>29269.16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>73.11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>12.31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>159.66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>26.89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>87.69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>410.58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>71.16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>896.58</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>6.73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>3.09</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>29.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>24.46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>-809648.71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>-55257.25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>-1971607.56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>656069.41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>110445.57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>816301.86</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>-153579.29999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>55188.31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>-1155305.7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>33142.959999999999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>13776.86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>29883.439999999999</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23">
+        <v>9046.4699999999993</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>7142.4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>34767.269999999997</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>7142.4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24">
+        <v>68385.47</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>113233.65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>50845.59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>278223.13</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>7872.83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26">
+        <v>1325.35</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26">
+        <v>17192.060000000001</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>4490.96</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <v>4379.62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29">
+        <v>18192.900000000001</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>-7.3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30">
+        <v>28.55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30">
+        <v>-7.7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31">
+        <v>-4.8099999999999996</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32">
+        <v>108</v>
+      </c>
+      <c r="J32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>365411.38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>81.53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>157610.42199999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>117.803</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>30.27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>16.469000000000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>81.53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>346.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>228.24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>117.8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>117.8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>117.8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>250174.77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>54453.59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>590745.06000000006</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>115236.61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>310957.78999999998</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>32011.71</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>257345.4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>468352.18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>104960.65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>1105933.83</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>6821.69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>8659.2000000000007</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>15136.57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>53762.38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>31387.34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>14.9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>161.66999999999999</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>31.54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>85.1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>8.76</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>297.16000000000003</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>66.59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>701.69</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>4.33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>5.49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>9.6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>34.11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>19.91</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>-731943.42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>-68270.31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>-1991115.39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>625436.91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>136133.97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>833499.16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>-106506.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>67863.649999999994</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>-1157616.23</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>33621.46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>15159.54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>29603.69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23">
+        <v>9017.34</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>7142.4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>33891.68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>7142.4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24">
+        <v>70322.61</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>104529.32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>56872.62</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>281540.65000000002</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>7505.24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26">
+        <v>1633.61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26">
+        <v>17722.349999999999</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>7262.58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <v>4783.92</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29">
+        <v>18989.810000000001</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>-7.08</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30">
+        <v>25.86</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30">
+        <v>-7.55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>-4.42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>16.16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31">
+        <v>-4.72</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32">
+        <v>111</v>
+      </c>
+      <c r="J32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>368115.74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>85.68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>179407.038</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>128.43799999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>30.31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>85.68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>319.63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>199.68799999999999</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>128.44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>128.44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>128.44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>250551.36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>61426.86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>610731.94999999995</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>117564.38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>306688.90999999997</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>35051.379999999997</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.03</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>277667.59000000003</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>469057.21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>118401.82</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>1143351.28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>6840.21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>8979.84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>22654.76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>62189.31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>40654.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>68.06</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>165.91</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>31.94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>83.31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>9.52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>261.45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>66</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>637.29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>3.81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>5.01</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>12.63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>22.66</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>-715465.3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>-76924.19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>-2048157.85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>626378.41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>153567.07999999999</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>832660.9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>-89086.89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>76642.89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>-1215496.95</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>33821.08</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>15331.38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>29288.74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23">
+        <v>9241.69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>7142.4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>34203.26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>7142.4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24">
+        <v>72761.19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>104665.65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>60779.76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>295884.55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>7516.54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26">
+        <v>1842.81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26">
+        <v>18321.96</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>6699.42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <v>4185.46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29">
+        <v>20489.349999999999</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>-6.92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30">
+        <v>24.15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30">
+        <v>-7.61</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>-4.33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>15.1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31">
+        <v>-4.76</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>49</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32">
+        <v>116</v>
+      </c>
+      <c r="J32" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
